--- a/out/analisis_finzen.xlsx
+++ b/out/analisis_finzen.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="301">
   <si>
     <t>nombre</t>
   </si>
@@ -127,6 +127,33 @@
     <t xml:space="preserve">Sasha </t>
   </si>
   <si>
+    <t xml:space="preserve">Juliette </t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Doménica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose David </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela </t>
+  </si>
+  <si>
+    <t>domenica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paola </t>
+  </si>
+  <si>
+    <t>Fernanda</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
     <t>Andrade</t>
   </si>
   <si>
@@ -196,6 +223,36 @@
     <t>Pluas</t>
   </si>
   <si>
+    <t>Constante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasquez </t>
+  </si>
+  <si>
+    <t>Pinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Díaz Amaguaña </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käslin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuasquer </t>
+  </si>
+  <si>
+    <t>castro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guitarra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisneros </t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
     <t>1750844597</t>
   </si>
   <si>
@@ -268,6 +325,36 @@
     <t>1725871527</t>
   </si>
   <si>
+    <t>1004820054</t>
+  </si>
+  <si>
+    <t>1727159285</t>
+  </si>
+  <si>
+    <t>1004421937</t>
+  </si>
+  <si>
+    <t>1755552731</t>
+  </si>
+  <si>
+    <t>1752930360</t>
+  </si>
+  <si>
+    <t>1005331168</t>
+  </si>
+  <si>
+    <t>1753379666</t>
+  </si>
+  <si>
+    <t>1003871132</t>
+  </si>
+  <si>
+    <t>1727762070</t>
+  </si>
+  <si>
+    <t>1728993677</t>
+  </si>
+  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -334,6 +421,33 @@
     <t>{'Trabajo': 120}</t>
   </si>
   <si>
+    <t>{'Mensualidad': 40}</t>
+  </si>
+  <si>
+    <t>{'Mensualidad': 25}</t>
+  </si>
+  <si>
+    <t>{'Emprendimiento': 60}</t>
+  </si>
+  <si>
+    <t>{'Mensuidad': 80}</t>
+  </si>
+  <si>
+    <t>{'Mensualidad': 200}</t>
+  </si>
+  <si>
+    <t>{'familia': 20}</t>
+  </si>
+  <si>
+    <t>{'trabajo': 15, 'familia': 75}</t>
+  </si>
+  <si>
+    <t>{'Familia': 40}</t>
+  </si>
+  <si>
+    <t>{'Mensualidad': 165}</t>
+  </si>
+  <si>
     <t>{'Universidad': 70}</t>
   </si>
   <si>
@@ -406,6 +520,36 @@
     <t>{'Pasajes': 9, 'Comida': 36, 'Renta': 54}</t>
   </si>
   <si>
+    <t>{'Pasajes': 35}</t>
+  </si>
+  <si>
+    <t>{'pasajes': 10, 'Comida': 30}</t>
+  </si>
+  <si>
+    <t>{'Pasajes': 10, 'Comida': 8}</t>
+  </si>
+  <si>
+    <t>{'Pasaje': 20, 'comida': 10, 'universidad': 10}</t>
+  </si>
+  <si>
+    <t>{'Comida': 50, 'Pasajes': 10}</t>
+  </si>
+  <si>
+    <t>{'Vivienda': 80, 'Comida': 70, 'Pasajes': 22}</t>
+  </si>
+  <si>
+    <t>{'Familia': 10}</t>
+  </si>
+  <si>
+    <t>{'Universidad': 36, 'Trabajo': 25}</t>
+  </si>
+  <si>
+    <t>{'Universidad': 30}</t>
+  </si>
+  <si>
+    <t>{'Comida': 80, 'Vivienda': 65, 'Lavandería': 7, 'Otros': 13}</t>
+  </si>
+  <si>
     <t>{'Pareja': 25}</t>
   </si>
   <si>
@@ -478,6 +622,33 @@
     <t>{'Restaurante': 5}</t>
   </si>
   <si>
+    <t>{'Dulces': 7}</t>
+  </si>
+  <si>
+    <t>{'Ropa': 5}</t>
+  </si>
+  <si>
+    <t>{'Libros': 20}</t>
+  </si>
+  <si>
+    <t>{'Ropa': 20, 'tecnología': 50}</t>
+  </si>
+  <si>
+    <t>{'Salidas': 10}</t>
+  </si>
+  <si>
+    <t>{'sin registro': 0}</t>
+  </si>
+  <si>
+    <t>{'pareja': 10, 'dulces': 5}</t>
+  </si>
+  <si>
+    <t>{'Comida': 2}</t>
+  </si>
+  <si>
+    <t>{'Medicinas': 25}</t>
+  </si>
+  <si>
     <t>24-26</t>
   </si>
   <si>
@@ -544,6 +715,42 @@
     <t xml:space="preserve">Leysi </t>
   </si>
   <si>
+    <t xml:space="preserve">Liseth </t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melany </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anayeli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wendy </t>
+  </si>
+  <si>
+    <t>Félix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jade </t>
+  </si>
+  <si>
+    <t>Eloy</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damaris </t>
+  </si>
+  <si>
+    <t>Giannirley</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ruiz </t>
   </si>
   <si>
@@ -586,6 +793,42 @@
     <t xml:space="preserve">Ojeda </t>
   </si>
   <si>
+    <t xml:space="preserve">Bustos </t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romero Lomas </t>
+  </si>
+  <si>
+    <t>Suarez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benalcázar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suárez </t>
+  </si>
+  <si>
+    <t>Cevallos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lincango </t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuentes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cunalata </t>
+  </si>
+  <si>
+    <t>Calderón</t>
+  </si>
+  <si>
     <t>1728732601</t>
   </si>
   <si>
@@ -629,6 +872,48 @@
   </si>
   <si>
     <t>1004743884</t>
+  </si>
+  <si>
+    <t>1756083174</t>
+  </si>
+  <si>
+    <t>1727897199</t>
+  </si>
+  <si>
+    <t>1724668262</t>
+  </si>
+  <si>
+    <t>1005124019</t>
+  </si>
+  <si>
+    <t>1004908743</t>
+  </si>
+  <si>
+    <t>1005334311</t>
+  </si>
+  <si>
+    <t>1213148180</t>
+  </si>
+  <si>
+    <t>1755847405</t>
+  </si>
+  <si>
+    <t>1050331857</t>
+  </si>
+  <si>
+    <t>1756083083</t>
+  </si>
+  <si>
+    <t>3050476666</t>
+  </si>
+  <si>
+    <t>1206796847</t>
+  </si>
+  <si>
+    <t>1711576106</t>
+  </si>
+  <si>
+    <t>1726984642</t>
   </si>
   <si>
     <t>dificultad_equilibrio</t>
@@ -992,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1041,25 +1326,25 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -1068,7 +1353,7 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="L2">
         <v>95</v>
@@ -1079,25 +1364,25 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="I3">
         <v>20</v>
@@ -1106,7 +1391,7 @@
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="L3">
         <v>500</v>
@@ -1117,25 +1402,25 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -1144,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L4">
         <v>60</v>
@@ -1155,25 +1440,25 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="I5">
         <v>25</v>
@@ -1182,7 +1467,7 @@
         <v>12.5</v>
       </c>
       <c r="K5" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L5">
         <v>55</v>
@@ -1193,25 +1478,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="I6">
         <v>30</v>
@@ -1220,7 +1505,7 @@
         <v>38.1</v>
       </c>
       <c r="K6" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L6">
         <v>65</v>
@@ -1234,22 +1519,22 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="I7">
         <v>20</v>
@@ -1258,7 +1543,7 @@
         <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L7">
         <v>270</v>
@@ -1269,25 +1554,25 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1296,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -1307,25 +1592,25 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1334,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="L9">
         <v>160</v>
@@ -1345,25 +1630,25 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -1372,7 +1657,7 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L10">
         <v>190</v>
@@ -1383,25 +1668,25 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1410,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L11">
         <v>230</v>
@@ -1421,25 +1706,25 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="H12" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="I12">
         <v>5</v>
@@ -1448,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L12">
         <v>95</v>
@@ -1459,25 +1744,25 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1486,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L13">
         <v>85</v>
@@ -1497,25 +1782,25 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -1524,7 +1809,7 @@
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L14">
         <v>600</v>
@@ -1535,25 +1820,25 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="H15" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I15">
         <v>5</v>
@@ -1562,7 +1847,7 @@
         <v>0.5</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L15">
         <v>16</v>
@@ -1573,25 +1858,25 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="H16" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1600,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="L16">
         <v>95</v>
@@ -1611,25 +1896,25 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="I17">
         <v>10</v>
@@ -1638,7 +1923,7 @@
         <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L17">
         <v>265</v>
@@ -1649,25 +1934,25 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -1676,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L18">
         <v>56</v>
@@ -1687,25 +1972,25 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -1714,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L19">
         <v>60</v>
@@ -1725,25 +2010,25 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="I20">
         <v>100</v>
@@ -1752,7 +2037,7 @@
         <v>400</v>
       </c>
       <c r="K20" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L20">
         <v>220</v>
@@ -1763,25 +2048,25 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1790,7 +2075,7 @@
         <v>150</v>
       </c>
       <c r="K21" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L21">
         <v>150</v>
@@ -1801,25 +2086,25 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="I22">
         <v>10</v>
@@ -1828,7 +2113,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="L22">
         <v>35</v>
@@ -1839,25 +2124,25 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D23">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -1866,7 +2151,7 @@
         <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L23">
         <v>62</v>
@@ -1877,25 +2162,25 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="H24" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1904,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L24">
         <v>123</v>
@@ -1915,25 +2200,25 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D25">
         <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="H25" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1942,10 +2227,390 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="L25">
         <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27">
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <v>15</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" t="s">
+        <v>203</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>1.25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" t="s">
+        <v>204</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>212</v>
+      </c>
+      <c r="L31">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" t="s">
+        <v>173</v>
+      </c>
+      <c r="H32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32">
+        <v>25</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" t="s">
+        <v>207</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>211</v>
+      </c>
+      <c r="L33">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>212</v>
+      </c>
+      <c r="L34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" t="s">
+        <v>209</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>8.25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>212</v>
+      </c>
+      <c r="L35">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1955,7 +2620,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1978,13 +2643,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1992,16 +2657,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2018,16 +2683,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2041,19 +2706,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2070,16 +2735,16 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2093,19 +2758,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="D6">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2122,16 +2787,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2148,16 +2813,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2177,13 +2842,13 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2197,19 +2862,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="D10">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2226,16 +2891,16 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2252,16 +2917,16 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2278,16 +2943,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2301,19 +2966,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="D14">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2330,16 +2995,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D15">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2356,16 +3021,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D16">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2379,19 +3044,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="D17">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2405,19 +3070,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="D18">
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2431,19 +3096,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="D19">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2457,19 +3122,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2483,19 +3148,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2512,16 +3177,16 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2535,19 +3200,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="D23">
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2564,16 +3229,16 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2587,19 +3252,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="D25">
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2616,16 +3281,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2642,16 +3307,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D27">
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2665,19 +3330,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2694,16 +3359,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D29">
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2720,16 +3385,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2743,19 +3408,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="D31">
         <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2772,16 +3437,16 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D32">
         <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2798,16 +3463,16 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D33">
         <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2824,16 +3489,16 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2847,19 +3512,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="D35">
         <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2876,16 +3541,16 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D36">
         <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2902,16 +3567,16 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D37">
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2928,16 +3593,16 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D38">
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2954,16 +3619,16 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D39">
         <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2977,19 +3642,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="D40">
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2999,6 +3664,630 @@
       </c>
       <c r="H40">
         <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" t="s">
+        <v>289</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>239</v>
+      </c>
+      <c r="B55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" t="s">
+        <v>294</v>
+      </c>
+      <c r="D55">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" t="s">
+        <v>267</v>
+      </c>
+      <c r="C58" t="s">
+        <v>296</v>
+      </c>
+      <c r="D58">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3008,7 +4297,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3031,7 +4320,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3039,16 +4328,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -3059,16 +4348,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -3079,16 +4368,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -3099,16 +4388,16 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3119,16 +4408,16 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -3142,13 +4431,13 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3159,16 +4448,16 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -3179,16 +4468,16 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3199,16 +4488,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -3219,16 +4508,16 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -3239,16 +4528,16 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -3259,16 +4548,16 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -3279,16 +4568,16 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -3299,16 +4588,16 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -3319,16 +4608,16 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -3339,16 +4628,16 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -3359,16 +4648,16 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -3379,16 +4668,16 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -3399,16 +4688,16 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -3419,16 +4708,16 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -3439,16 +4728,16 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -3459,16 +4748,16 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D23">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -3479,16 +4768,16 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -3499,19 +4788,219 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D25">
         <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F25">
         <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3521,7 +5010,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3544,7 +5033,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3552,16 +5041,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3572,16 +5061,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3589,19 +5078,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3612,16 +5101,16 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3629,19 +5118,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="D6">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3652,16 +5141,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3672,16 +5161,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3695,13 +5184,13 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3709,19 +5198,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="D10">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3732,16 +5221,16 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3752,16 +5241,16 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3772,16 +5261,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3789,19 +5278,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="D14">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3812,16 +5301,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D15">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3832,16 +5321,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D16">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3849,19 +5338,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="D17">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3869,19 +5358,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="D18">
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3889,19 +5378,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="D19">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3909,19 +5398,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3929,19 +5418,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3952,16 +5441,16 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3969,19 +5458,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="D23">
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3992,16 +5481,16 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4009,19 +5498,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="D25">
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -4032,16 +5521,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -4052,16 +5541,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D27">
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -4069,19 +5558,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4092,16 +5581,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D29">
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4112,16 +5601,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4129,19 +5618,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="D31">
         <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -4152,16 +5641,16 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D32">
         <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -4172,16 +5661,16 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D33">
         <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -4192,16 +5681,16 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -4209,19 +5698,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="D35">
         <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4232,16 +5721,16 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D36">
         <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -4252,16 +5741,16 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D37">
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -4272,16 +5761,16 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D38">
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -4292,16 +5781,16 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D39">
         <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -4309,22 +5798,502 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="D40">
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F40">
         <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" t="s">
+        <v>289</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>239</v>
+      </c>
+      <c r="B55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" t="s">
+        <v>294</v>
+      </c>
+      <c r="D55">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" t="s">
+        <v>267</v>
+      </c>
+      <c r="C58" t="s">
+        <v>296</v>
+      </c>
+      <c r="D58">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
